--- a/consumer_data.xlsx
+++ b/consumer_data.xlsx
@@ -11,18 +11,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>consumer_id</t>
-  </si>
-  <si>
-    <t>site_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+  <si>
+    <t>Sl. No.</t>
+  </si>
+  <si>
+    <t>Site Id</t>
+  </si>
+  <si>
+    <t>Consumer No./BP No.</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Consumer Id</t>
+  </si>
+  <si>
+    <t>CPS_TEST001</t>
   </si>
   <si>
     <t>CPS-01</t>
   </si>
   <si>
-    <t>CPS_TEST001</t>
+    <t>CPS-02</t>
+  </si>
+  <si>
+    <t>CPS-03</t>
+  </si>
+  <si>
+    <t>CPS-10</t>
+  </si>
+  <si>
+    <t>CPS-11</t>
+  </si>
+  <si>
+    <t>CPS-12</t>
+  </si>
+  <si>
+    <t>CPS-13</t>
+  </si>
+  <si>
+    <t>CPS-14</t>
+  </si>
+  <si>
+    <t>CPS-15</t>
+  </si>
+  <si>
+    <t>CPS-16</t>
   </si>
 </sst>
 </file>
@@ -294,6 +330,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="23.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -302,17 +342,185 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.667888665E9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.953778518E9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.818841898E9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.571061774E9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.800098198E9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.800098107E9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.205597583E9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.985200687E9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.903722947E9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.675291162E9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
